--- a/src/assets/車籍資料表.xlsx
+++ b/src/assets/車籍資料表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>客戶代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開立統編</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,27 +409,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,24 +440,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
